--- a/PythonResources/Data/Consumption/Sympheny/base_1676_ele.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1676_ele.xlsx
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24647,7 +24647,7 @@
         <v>3038</v>
       </c>
       <c r="B3038">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3039" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25231,7 +25231,7 @@
         <v>3111</v>
       </c>
       <c r="B3111">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3112" spans="1:2">
@@ -25567,7 +25567,7 @@
         <v>3153</v>
       </c>
       <c r="B3153">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3154" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28303,7 +28303,7 @@
         <v>3495</v>
       </c>
       <c r="B3495">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3496" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29479,7 +29479,7 @@
         <v>3642</v>
       </c>
       <c r="B3642">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29623,7 +29623,7 @@
         <v>3660</v>
       </c>
       <c r="B3660">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30367,7 +30367,7 @@
         <v>3753</v>
       </c>
       <c r="B3753">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>11.942408</v>
+        <v>14.500028264368</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>7.119374</v>
+        <v>8.874289513384703</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -30991,7 +30991,7 @@
         <v>3831</v>
       </c>
       <c r="B3831">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31711,7 +31711,7 @@
         <v>3921</v>
       </c>
       <c r="B3921">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3922" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31767,7 +31767,7 @@
         <v>3928</v>
       </c>
       <c r="B3928">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3929" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>11.942408</v>
+        <v>14.9647824866859</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>8.840894</v>
+        <v>11.78008772980251</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31943,7 +31943,7 @@
         <v>3950</v>
       </c>
       <c r="B3950">
-        <v>7.119374</v>
+        <v>8.836366644873689</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32167,7 +32167,7 @@
         <v>3978</v>
       </c>
       <c r="B3978">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="3979" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32295,7 +32295,7 @@
         <v>3994</v>
       </c>
       <c r="B3994">
-        <v>12.534297</v>
+        <v>20.87153001156409</v>
       </c>
     </row>
     <row r="3995" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>12.534297</v>
+        <v>23.31501390997383</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>11.942408</v>
+        <v>16.76943148085575</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>8.840894</v>
+        <v>19.51090154269767</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32663,7 +32663,7 @@
         <v>4040</v>
       </c>
       <c r="B4040">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32703,7 +32703,7 @@
         <v>4045</v>
       </c>
       <c r="B4045">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4046" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>4.342453</v>
+        <v>7.50471419059495</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32743,7 +32743,7 @@
         <v>4050</v>
       </c>
       <c r="B4050">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4051" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -32935,7 +32935,7 @@
         <v>4074</v>
       </c>
       <c r="B4074">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4075" spans="1:2">
@@ -32943,7 +32943,7 @@
         <v>4075</v>
       </c>
       <c r="B4075">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4076" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33271,7 +33271,7 @@
         <v>4116</v>
       </c>
       <c r="B4116">
-        <v>11.942408</v>
+        <v>13.84368589260524</v>
       </c>
     </row>
     <row r="4117" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>8.840894</v>
+        <v>10.89539581355012</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33487,7 +33487,7 @@
         <v>4143</v>
       </c>
       <c r="B4143">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4144" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33647,7 +33647,7 @@
         <v>4163</v>
       </c>
       <c r="B4163">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4164" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33863,7 +33863,7 @@
         <v>4190</v>
       </c>
       <c r="B4190">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4191" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33903,7 +33903,7 @@
         <v>4195</v>
       </c>
       <c r="B4195">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4196" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34087,7 +34087,7 @@
         <v>4218</v>
       </c>
       <c r="B4218">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4219" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34279,7 +34279,7 @@
         <v>4242</v>
       </c>
       <c r="B4242">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4243" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34607,7 +34607,7 @@
         <v>4283</v>
       </c>
       <c r="B4283">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4284" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>11.942408</v>
+        <v>14.7592332718809</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>11.942408</v>
+        <v>15.85803989141483</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>8.840894</v>
+        <v>14.09226156593725</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>7.119374</v>
+        <v>11.34348040422484</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>4.342453</v>
+        <v>9.736842468742772</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35935,7 +35935,7 @@
         <v>4449</v>
       </c>
       <c r="B4449">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -35999,7 +35999,7 @@
         <v>4457</v>
       </c>
       <c r="B4457">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36191,7 +36191,7 @@
         <v>4481</v>
       </c>
       <c r="B4481">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>11.977949</v>
+        <v>14.7206719723078</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36327,7 +36327,7 @@
         <v>4498</v>
       </c>
       <c r="B4498">
-        <v>12.534297</v>
+        <v>18.02646855279838</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>12.534297</v>
+        <v>30.74563952734873</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>11.942408</v>
+        <v>36.36941606299791</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>8.840894</v>
+        <v>19.33997317363952</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>7.119374</v>
+        <v>11.89938316619782</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>4.342453</v>
+        <v>8.821466375758902</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>2.091144</v>
+        <v>3.728837815550069</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37655,7 +37655,7 @@
         <v>4664</v>
       </c>
       <c r="B4664">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -37663,7 +37663,7 @@
         <v>4665</v>
       </c>
       <c r="B4665">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4666" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37895,7 +37895,7 @@
         <v>4694</v>
       </c>
       <c r="B4694">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4695" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37911,7 +37911,7 @@
         <v>4696</v>
       </c>
       <c r="B4696">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38095,7 +38095,7 @@
         <v>4719</v>
       </c>
       <c r="B4719">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38127,7 +38127,7 @@
         <v>4723</v>
       </c>
       <c r="B4723">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38311,7 +38311,7 @@
         <v>4746</v>
       </c>
       <c r="B4746">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>12.534297</v>
+        <v>15.22041272031506</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>12.534297</v>
+        <v>15.47442705121659</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>11.942408</v>
+        <v>17.92449575177042</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>8.840894</v>
+        <v>18.29438875088425</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>7.119374</v>
+        <v>9.983766345381856</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>4.342453</v>
+        <v>6.736619738890104</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38503,7 +38503,7 @@
         <v>4770</v>
       </c>
       <c r="B4770">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4771" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>12.534297</v>
+        <v>15.39648206655754</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>12.534297</v>
+        <v>18.28120208416436</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>11.942408</v>
+        <v>26.62210920345845</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>8.840894</v>
+        <v>15.51809926055576</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>7.119374</v>
+        <v>13.75511913409297</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>4.342453</v>
+        <v>11.49367356168366</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38687,7 +38687,7 @@
         <v>4793</v>
       </c>
       <c r="B4793">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4794" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38703,7 +38703,7 @@
         <v>4795</v>
       </c>
       <c r="B4795">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4796" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>2.091144</v>
+        <v>3.728837815550069</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>3.760309</v>
+        <v>5.708388441320365</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>3.760309</v>
+        <v>5.804331419152186</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38895,7 +38895,7 @@
         <v>4819</v>
       </c>
       <c r="B4819">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39007,7 +39007,7 @@
         <v>4833</v>
       </c>
       <c r="B4833">
-        <v>11.977949</v>
+        <v>14.38423556367596</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>12.534297</v>
+        <v>21.94125027449999</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>12.534297</v>
+        <v>25.92344217671533</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>11.942408</v>
+        <v>29.00570042007413</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>8.840894</v>
+        <v>20.25398697475771</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>7.119374</v>
+        <v>20.86801588541354</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>4.342453</v>
+        <v>15.73242549096482</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39087,7 +39087,7 @@
         <v>4843</v>
       </c>
       <c r="B4843">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4844" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>2.091144</v>
+        <v>3.728837815550069</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39207,7 +39207,7 @@
         <v>4858</v>
       </c>
       <c r="B4858">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39287,7 +39287,7 @@
         <v>4868</v>
       </c>
       <c r="B4868">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4869" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>4.520029999999999</v>
+        <v>6.157723815550069</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>11.977949</v>
+        <v>20.13758277676927</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>12.534297</v>
+        <v>31.87432442970847</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>12.534297</v>
+        <v>35.29063093769078</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>11.942408</v>
+        <v>47.2375333351308</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>8.840894</v>
+        <v>40.51968785552796</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>7.119374</v>
+        <v>30.34661426949455</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>4.342453</v>
+        <v>21.75436638124338</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39463,7 +39463,7 @@
         <v>4890</v>
       </c>
       <c r="B4890">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>2.091144</v>
+        <v>3.728837815550069</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39679,7 +39679,7 @@
         <v>4917</v>
       </c>
       <c r="B4917">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="4918" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>12.534297</v>
+        <v>18.93620444644138</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>12.534297</v>
+        <v>19.98673178383746</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>11.942408</v>
+        <v>19.34742687038862</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>8.840894</v>
+        <v>17.54261536325927</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>7.119374</v>
+        <v>14.1162235067318</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>4.342453</v>
+        <v>10.12200053886139</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -40983,7 +40983,7 @@
         <v>5080</v>
       </c>
       <c r="B5080">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5081" spans="1:2">
@@ -40991,7 +40991,7 @@
         <v>5081</v>
       </c>
       <c r="B5081">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -40999,7 +40999,7 @@
         <v>5082</v>
       </c>
       <c r="B5082">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="5083" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41175,7 +41175,7 @@
         <v>5104</v>
       </c>
       <c r="B5104">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5105" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>11.942408</v>
+        <v>14.7082466499931</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>12.534297</v>
+        <v>14.74549239852114</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41711,7 +41711,7 @@
         <v>5171</v>
       </c>
       <c r="B5171">
-        <v>12.534297</v>
+        <v>14.78861572655327</v>
       </c>
     </row>
     <row r="5172" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>11.942408</v>
+        <v>14.09587591330564</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41727,7 +41727,7 @@
         <v>5173</v>
       </c>
       <c r="B5173">
-        <v>8.840894</v>
+        <v>11.01047506578432</v>
       </c>
     </row>
     <row r="5174" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>7.119374</v>
+        <v>10.05033687932128</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41743,7 +41743,7 @@
         <v>5175</v>
       </c>
       <c r="B5175">
-        <v>4.342453</v>
+        <v>8.011249191221998</v>
       </c>
     </row>
     <row r="5176" spans="1:2">
@@ -41751,7 +41751,7 @@
         <v>5176</v>
       </c>
       <c r="B5176">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5177" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>0.6963524</v>
+        <v>2.334046215550069</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -42095,7 +42095,7 @@
         <v>5219</v>
       </c>
       <c r="B5219">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5220" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42711,7 +42711,7 @@
         <v>5296</v>
       </c>
       <c r="B5296">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5297" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43071,7 +43071,7 @@
         <v>5341</v>
       </c>
       <c r="B5341">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5342" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43279,7 +43279,7 @@
         <v>5367</v>
       </c>
       <c r="B5367">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5368" spans="1:2">
@@ -43287,7 +43287,7 @@
         <v>5368</v>
       </c>
       <c r="B5368">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5369" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43415,7 +43415,7 @@
         <v>5384</v>
       </c>
       <c r="B5384">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5385" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>12.534297</v>
+        <v>16.72373701526389</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>12.534297</v>
+        <v>16.05892513042598</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>11.942408</v>
+        <v>16.65167932507852</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>8.840894</v>
+        <v>15.52082472636233</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43463,7 +43463,7 @@
         <v>5390</v>
       </c>
       <c r="B5390">
-        <v>7.119374</v>
+        <v>11.54725309342471</v>
       </c>
     </row>
     <row r="5391" spans="1:2">
@@ -43471,7 +43471,7 @@
         <v>5391</v>
       </c>
       <c r="B5391">
-        <v>4.342453</v>
+        <v>8.261410519868219</v>
       </c>
     </row>
     <row r="5392" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43687,7 +43687,7 @@
         <v>5418</v>
       </c>
       <c r="B5418">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="5419" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>0.2089056</v>
+        <v>1.846599415550069</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44031,7 +44031,7 @@
         <v>5461</v>
       </c>
       <c r="B5461">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5462" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44383,7 +44383,7 @@
         <v>5505</v>
       </c>
       <c r="B5505">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5506" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44423,7 +44423,7 @@
         <v>5510</v>
       </c>
       <c r="B5510">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5511" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45007,7 +45007,7 @@
         <v>5583</v>
       </c>
       <c r="B5583">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5584" spans="1:2">
@@ -45143,7 +45143,7 @@
         <v>5600</v>
       </c>
       <c r="B5600">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5601" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45351,7 +45351,7 @@
         <v>5626</v>
       </c>
       <c r="B5626">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5627" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -45367,7 +45367,7 @@
         <v>5628</v>
       </c>
       <c r="B5628">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5629" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45751,7 +45751,7 @@
         <v>5676</v>
       </c>
       <c r="B5676">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5677" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45775,7 +45775,7 @@
         <v>5679</v>
       </c>
       <c r="B5679">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5680" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -45975,7 +45975,7 @@
         <v>5704</v>
       </c>
       <c r="B5704">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5705" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46111,7 +46111,7 @@
         <v>5721</v>
       </c>
       <c r="B5721">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5722" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46343,7 +46343,7 @@
         <v>5750</v>
       </c>
       <c r="B5750">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5751" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46359,7 +46359,7 @@
         <v>5752</v>
       </c>
       <c r="B5752">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5753" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46687,7 +46687,7 @@
         <v>5793</v>
       </c>
       <c r="B5793">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5794" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46743,7 +46743,7 @@
         <v>5800</v>
       </c>
       <c r="B5800">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5801" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47319,7 +47319,7 @@
         <v>5872</v>
       </c>
       <c r="B5872">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5873" spans="1:2">
@@ -47327,7 +47327,7 @@
         <v>5873</v>
       </c>
       <c r="B5873">
-        <v>2.517311</v>
+        <v>4.155004815550069</v>
       </c>
     </row>
     <row r="5874" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48415,7 +48415,7 @@
         <v>6009</v>
       </c>
       <c r="B6009">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6010" spans="1:2">
@@ -48423,7 +48423,7 @@
         <v>6010</v>
       </c>
       <c r="B6010">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6011" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>3.760309</v>
+        <v>5.398002815550069</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51151,7 +51151,7 @@
         <v>6351</v>
       </c>
       <c r="B6351">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6352" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51903,7 +51903,7 @@
         <v>6445</v>
       </c>
       <c r="B6445">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6446" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52495,7 +52495,7 @@
         <v>6519</v>
       </c>
       <c r="B6519">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6520" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -54751,7 +54751,7 @@
         <v>6801</v>
       </c>
       <c r="B6801">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="6802" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55559,7 +55559,7 @@
         <v>6902</v>
       </c>
       <c r="B6902">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="6903" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>1.234076</v>
+        <v>2.87176981555007</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>11.977949</v>
+        <v>13.61564281555007</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>8.599117999999999</v>
+        <v>10.23681181555007</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>12.534297</v>
+        <v>14.17199081555007</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>11.942408</v>
+        <v>13.58010181555007</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>8.840894</v>
+        <v>10.47858781555007</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>7.119374</v>
+        <v>8.757067815550069</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>4.342453</v>
+        <v>5.98014681555007</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
